--- a/co_occurrence_delivery.xlsx
+++ b/co_occurrence_delivery.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,156 @@
       </c>
       <c r="B11" t="n">
         <v>55</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>dm</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>yet</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>receive</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>well</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>deliver</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>issue</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -567,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,6 +835,156 @@
       </c>
       <c r="B11" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>never</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>skin</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>see</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>soon</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>guy</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>love</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,6 +1116,156 @@
       </c>
       <c r="B11" t="n">
         <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>take</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>receive</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>yet</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>guy</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ship</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>option</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>mail</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -829,7 +1279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,6 +1397,156 @@
       </c>
       <c r="B11" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>bottle</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>prepay</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>respond</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>anyway</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>move</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>consumer</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>forum</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>cushomer</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>request</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>theordinary</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +1560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,6 +1678,156 @@
       </c>
       <c r="B11" t="n">
         <v>696</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>assist</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>however</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>share</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sorry</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>well</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>extremely</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>respond</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>let</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>issue</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>understand</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1091,7 +1841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1209,6 +1959,156 @@
       </c>
       <c r="B11" t="n">
         <v>273</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>detail</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>apology</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>accept</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sincere</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sorry</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>yet</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>however</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>understand</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>accordingly</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>find</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>assure</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>reply</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +2122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1340,6 +2240,156 @@
       </c>
       <c r="B11" t="n">
         <v>27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>serum</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>hey</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>acid</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>bottle</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>packaging</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>change</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>dm</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>tube</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>spot</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>yet</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +2403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1471,6 +2521,156 @@
       </c>
       <c r="B11" t="n">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>dm</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>hey</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>yet</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>have</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>mail</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>unable</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>till</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1484,7 +2684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1602,6 +2802,156 @@
       </c>
       <c r="B11" t="n">
         <v>101</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>serum</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>let</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>acne</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ve</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>acid</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>dm</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>love</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1733,6 +3083,156 @@
       </c>
       <c r="B11" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>hope</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>many</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>vitamin</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>lot</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1746,7 +3246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1864,6 +3364,156 @@
       </c>
       <c r="B11" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>love</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>serum</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>face</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>niacinamide</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>hey</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sorry</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>still</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>yet</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>hair</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1877,7 +3527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1997,6 +3647,156 @@
         <v>24</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>acne</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>aha</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>exfoliate</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>solution</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>dead</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>serum</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>bha</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>remove</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
